--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T09:24:42+01:00</t>
+    <t>2025-06-23T10:40:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T10:40:32+01:00</t>
+    <t>2025-06-23T11:00:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T11:00:10+01:00</t>
+    <t>2025-06-23T12:00:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:39+01:00</t>
+    <t>2025-06-23T12:11:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T07:35:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG Client HIV status</t>
+    <t>NG-Imm Client HIV status CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T07:35:37+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-hiv-status.xlsx
+++ b/output/CodeSystem-nigeria-hiv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-25T15:41:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
